--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317215.6410635517</v>
+        <v>313955.7813515543</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11084373.30616851</v>
+        <v>11781555.54068325</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21903018.1574896</v>
+        <v>22600200.39200435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3761188.414831081</v>
+        <v>3415221.578700062</v>
       </c>
     </row>
     <row r="11">
@@ -8298,7 +8298,7 @@
         <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>14.17891314335149</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>37.54182911310821</v>
@@ -8535,7 +8535,7 @@
         <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>26.85597970277001</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,7 +8769,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,16 +8848,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O13" t="n">
         <v>56.93882853040725</v>
@@ -8927,22 +8927,22 @@
         <v>71.92258334679381</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>83.46310250126155</v>
@@ -9006,7 +9006,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>52.1697293391627</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,7 +9480,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,16 +9559,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
         <v>56.93882853040725</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>56.54227989916993</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>83.46310250126155</v>
@@ -9717,7 +9717,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,13 +9881,13 @@
         <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>46.34579576917244</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10039,13 +10039,13 @@
         <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>67.97552059180406</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>83.46310250126155</v>
@@ -10191,7 +10191,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>52.1697293391627</v>
@@ -10352,19 +10352,19 @@
         <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>83.46310250126155</v>
@@ -10428,7 +10428,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>52.1697293391627</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,19 +10589,19 @@
         <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>83.46310250126155</v>
@@ -10665,7 +10665,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>52.1697293391627</v>
@@ -10826,10 +10826,10 @@
         <v>56.54227989916993</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>13.46996085601</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>83.46310250126155</v>
@@ -10902,7 +10902,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>52.1697293391627</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,19 +11458,19 @@
         <v>62.00809140979794</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23127,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -23282,22 +23282,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R13" t="n">
         <v>151.3616578248528</v>
@@ -23519,22 +23519,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,7 +23613,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -23753,31 +23753,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23829,13 +23829,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,13 +23850,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S18" t="n">
         <v>158.905408270449</v>
@@ -23990,28 +23990,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>69.10542099048567</v>
@@ -24072,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,10 +24087,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>57.4466155766215</v>
@@ -24157,7 +24157,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24227,25 +24227,25 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24309,7 +24309,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,10 +24324,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R24" t="n">
         <v>57.4466155766215</v>
@@ -24473,13 +24473,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24540,13 +24540,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,13 +24561,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S27" t="n">
         <v>158.905408270449</v>
@@ -24631,13 +24631,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24701,25 +24701,25 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24944,19 +24944,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,7 +25035,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25096,28 +25096,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25181,19 +25181,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25257,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25418,10 +25418,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -25430,7 +25430,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25570,28 +25570,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25649,28 +25649,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
         <v>69.10542099048567</v>
@@ -25725,13 +25725,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,13 +25746,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S42" t="n">
         <v>158.905408270449</v>
@@ -25807,28 +25807,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25886,31 +25886,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -25965,10 +25965,10 @@
         <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,10 +25983,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R45" t="n">
         <v>57.4466155766215</v>
@@ -26050,19 +26050,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
         <v>37.86903925848995</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>333023.6194260847</v>
+        <v>329213.472069594</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>328093.623007911</v>
+        <v>326172.9498119969</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>318334.5492836501</v>
+        <v>294728.7878121813</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318334.5492836501</v>
+        <v>294728.7878121813</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>318334.5492836501</v>
+        <v>251340.3685385494</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>318334.5492836501</v>
+        <v>267174.6758383816</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>318334.5492836501</v>
+        <v>288715.3176249614</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>318334.5492836501</v>
+        <v>294965.7489925495</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>318334.5492836501</v>
+        <v>284709.9719519729</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>318334.5492836501</v>
+        <v>284839.3530373835</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>318334.5492836501</v>
+        <v>302605.1274021356</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>318334.5492836501</v>
+        <v>286715.7185846257</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>318334.5492836501</v>
+        <v>242728.8914621037</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>318334.5492836501</v>
+        <v>244465.0987388537</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>113766.0727486726</v>
       </c>
       <c r="C2" t="n">
-        <v>122500.0369444123</v>
+        <v>121356.992737465</v>
       </c>
       <c r="D2" t="n">
-        <v>123427.4064831884</v>
+        <v>122851.2045244142</v>
       </c>
       <c r="E2" t="n">
-        <v>125531.3840360117</v>
+        <v>118449.6555945711</v>
       </c>
       <c r="F2" t="n">
-        <v>125531.3840360117</v>
+        <v>118449.6555945711</v>
       </c>
       <c r="G2" t="n">
-        <v>125531.3840360117</v>
+        <v>105433.1298124816</v>
       </c>
       <c r="H2" t="n">
-        <v>125531.3840360117</v>
+        <v>110183.4220024313</v>
       </c>
       <c r="I2" t="n">
-        <v>125531.3840360117</v>
+        <v>116645.6145384052</v>
       </c>
       <c r="J2" t="n">
-        <v>125531.3840360117</v>
+        <v>118520.7439486816</v>
       </c>
       <c r="K2" t="n">
-        <v>125531.3840360117</v>
+        <v>115444.0108365086</v>
       </c>
       <c r="L2" t="n">
-        <v>125531.3840360117</v>
+        <v>115482.8251621318</v>
       </c>
       <c r="M2" t="n">
-        <v>125531.3840360117</v>
+        <v>120812.5574715574</v>
       </c>
       <c r="N2" t="n">
-        <v>125531.3840360117</v>
+        <v>116045.7348263044</v>
       </c>
       <c r="O2" t="n">
-        <v>125531.3840360117</v>
+        <v>102849.6866895479</v>
       </c>
       <c r="P2" t="n">
-        <v>125531.3840360117</v>
+        <v>103370.5488725729</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807397</v>
+        <v>11372.629688074</v>
       </c>
       <c r="C3" t="n">
         <v>203044.1822108271</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108891.3067535205</v>
+        <v>109980.3501571288</v>
       </c>
       <c r="C4" t="n">
-        <v>46722.91481655464</v>
+        <v>46047.15568217522</v>
       </c>
       <c r="D4" t="n">
-        <v>39699.30068933495</v>
+        <v>39520.1392550302</v>
       </c>
       <c r="E4" t="n">
-        <v>25176.19445408718</v>
+        <v>18346.25809151516</v>
       </c>
       <c r="F4" t="n">
-        <v>25176.19445408717</v>
+        <v>18346.25809151516</v>
       </c>
       <c r="G4" t="n">
-        <v>25176.19445408717</v>
+        <v>5329.732309425659</v>
       </c>
       <c r="H4" t="n">
-        <v>25176.19445408717</v>
+        <v>10080.02449937531</v>
       </c>
       <c r="I4" t="n">
-        <v>25176.19445408717</v>
+        <v>16542.2170353492</v>
       </c>
       <c r="J4" t="n">
-        <v>25176.19445408717</v>
+        <v>18417.34644562562</v>
       </c>
       <c r="K4" t="n">
-        <v>25176.19445408717</v>
+        <v>15340.61333345265</v>
       </c>
       <c r="L4" t="n">
-        <v>25176.19445408717</v>
+        <v>15379.42765907581</v>
       </c>
       <c r="M4" t="n">
-        <v>25176.19445408717</v>
+        <v>20709.15996850147</v>
       </c>
       <c r="N4" t="n">
-        <v>25176.19445408717</v>
+        <v>15942.33732324847</v>
       </c>
       <c r="O4" t="n">
-        <v>25176.19445408717</v>
+        <v>2746.289186491936</v>
       </c>
       <c r="P4" t="n">
-        <v>25176.19445408717</v>
+        <v>3267.151369516938</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="F5" t="n">
         <v>6972.10256325733</v>
@@ -26485,7 +26485,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
         <v>6972.10256325733</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40382.74885532628</v>
+        <v>-41471.7922589346</v>
       </c>
       <c r="C6" t="n">
-        <v>-166012.8649141162</v>
+        <v>-166480.1499866839</v>
       </c>
       <c r="D6" t="n">
-        <v>22134.37430715579</v>
+        <v>21737.33378268633</v>
       </c>
       <c r="E6" t="n">
-        <v>45962.36475139306</v>
+        <v>45710.57267252445</v>
       </c>
       <c r="F6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979862</v>
       </c>
       <c r="G6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979864</v>
       </c>
       <c r="H6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979862</v>
       </c>
       <c r="I6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979864</v>
       </c>
       <c r="J6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979864</v>
       </c>
       <c r="K6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979862</v>
       </c>
       <c r="L6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979865</v>
       </c>
       <c r="M6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979864</v>
       </c>
       <c r="N6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979864</v>
       </c>
       <c r="O6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979865</v>
       </c>
       <c r="P6" t="n">
-        <v>93383.0870186672</v>
+        <v>93131.29493979864</v>
       </c>
     </row>
   </sheetData>
@@ -31756,7 +31756,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J11" t="n">
         <v>109.1233211798925</v>
@@ -31765,7 +31765,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
@@ -31856,13 +31856,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
@@ -31871,7 +31871,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H13" t="n">
         <v>5.127625437558785</v>
@@ -31920,16 +31920,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O13" t="n">
         <v>81.51770992143554</v>
@@ -31938,7 +31938,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -32467,7 +32467,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
         <v>109.1233211798925</v>
@@ -32476,7 +32476,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
@@ -32567,13 +32567,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
@@ -32582,7 +32582,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
         <v>5.127625437558785</v>
@@ -32631,16 +32631,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
         <v>81.51770992143554</v>
@@ -32649,7 +32649,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313955.7813515543</v>
+        <v>337322.3770550952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11781555.54068325</v>
+        <v>11996082.62363122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22600200.39200435</v>
+        <v>22772380.97929929</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3415221.578700062</v>
+        <v>3291063.779129223</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>107.2955742555736</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>109.5572237694796</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>98.64091687123928</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>77.7676953375541</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>74.3656454478664</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>83.69133109099639</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>106.2781106359148</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>128.4697750236904</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>82.91243519753434</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>62.76629045205057</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>45.19417501179163</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>80.63453985745144</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>83.72822537421013</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>76.93542539304551</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>77.82642397052864</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>68.03899070462725</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>83.36329197944329</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>90.5862140395771</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8453,22 +8455,22 @@
         <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>109.0872921559756</v>
@@ -8550,7 +8552,7 @@
         <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,7 +8619,7 @@
         <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>55.71856618250388</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9322,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10033,10 +10035,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10048,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11233,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11467,10 +11469,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2552920008841</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>7.922410639454649</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.867117437475873</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>146.8887686565825</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>88.5226115060478</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.58170088321393</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>91.85451271704937</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>19.79686107274064</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1474282515537739</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.37993042953531</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.3588981658848</v>
+        <v>414.4337959369544</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>330.5757541782243</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>176.9760193775952</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>90.58066941881005</v>
+        <v>95.28546653075742</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>189.2190633734531</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>219.2920578056454</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.276137581582</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8785924310737</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>107.7452501129632</v>
       </c>
       <c r="I6" t="n">
-        <v>72.00962059397116</v>
+        <v>73.38935588968215</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22890,16 +22892,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>37.60657774285653</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>24.33271034503603</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.42253800004659</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>31.97882363640291</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>68.80362453272261</v>
+        <v>71.29171788891175</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>163.0473981187501</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>198.2907557613397</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9107949275447</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.6012020808691</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>158.7616981666879</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>143.7288091611985</v>
       </c>
       <c r="J7" t="n">
-        <v>63.42664968215054</v>
+        <v>65.80192659108423</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.71025749466926</v>
+        <v>53.52351139825525</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>159.7675876048201</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>217.2238431175235</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>226.2801774240348</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2977687777133</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23045,22 +23047,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -23142,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
         <v>65.32921403493339</v>
@@ -23209,7 +23211,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679383</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601003</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,22 +24852,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24874,25 +24876,25 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25181,34 +25183,34 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25342,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8218408634681</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>375434.5199040319</v>
+        <v>376275.9193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>329213.472069594</v>
+        <v>329044.0158339013</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>326172.9498119969</v>
+        <v>271387.2037673077</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>294728.7878121813</v>
+        <v>269703.9543869278</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>294728.7878121813</v>
+        <v>258773.0950063578</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>251340.3685385494</v>
+        <v>238614.6095368957</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>267174.6758383816</v>
+        <v>256604.7315194114</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>288715.3176249614</v>
+        <v>264480.3949619157</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>294965.7489925495</v>
+        <v>274268.326453239</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>284709.9719519729</v>
+        <v>288983.4524265881</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>284839.3530373835</v>
+        <v>279677.9054287942</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>302605.1274021356</v>
+        <v>297177.6286367438</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>286715.7185846257</v>
+        <v>281499.4249536251</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>242728.8914621037</v>
+        <v>270111.200065819</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>244465.0987388537</v>
+        <v>282517.7520503027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113766.0727486726</v>
+        <v>112882.7758080187</v>
       </c>
       <c r="C2" t="n">
-        <v>121356.992737465</v>
+        <v>119513.3066050055</v>
       </c>
       <c r="D2" t="n">
-        <v>122851.2045244142</v>
+        <v>106415.4807110076</v>
       </c>
       <c r="E2" t="n">
-        <v>118449.6555945711</v>
+        <v>111408.571839108</v>
       </c>
       <c r="F2" t="n">
-        <v>118449.6555945711</v>
+        <v>108129.314024937</v>
       </c>
       <c r="G2" t="n">
-        <v>105433.1298124816</v>
+        <v>102081.7683840984</v>
       </c>
       <c r="H2" t="n">
-        <v>110183.4220024313</v>
+        <v>107478.8049788531</v>
       </c>
       <c r="I2" t="n">
-        <v>116645.6145384052</v>
+        <v>109841.5040116044</v>
       </c>
       <c r="J2" t="n">
-        <v>118520.7439486816</v>
+        <v>112777.8834590013</v>
       </c>
       <c r="K2" t="n">
-        <v>115444.0108365086</v>
+        <v>117192.421251006</v>
       </c>
       <c r="L2" t="n">
-        <v>115482.8251621318</v>
+        <v>114400.7571516679</v>
       </c>
       <c r="M2" t="n">
-        <v>120812.5574715574</v>
+        <v>119650.6741140527</v>
       </c>
       <c r="N2" t="n">
-        <v>116045.7348263044</v>
+        <v>114947.2130091171</v>
       </c>
       <c r="O2" t="n">
-        <v>102849.6866895479</v>
+        <v>111530.7455427753</v>
       </c>
       <c r="P2" t="n">
-        <v>103370.5488725729</v>
+        <v>115252.7111381204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.629688074</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>196825.9098199031</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>38236.46568336456</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>52530.53686621619</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109980.3501571288</v>
+        <v>112882.7758080187</v>
       </c>
       <c r="C4" t="n">
-        <v>46047.15568217522</v>
+        <v>50179.633755555</v>
       </c>
       <c r="D4" t="n">
-        <v>39520.1392550302</v>
+        <v>23084.41544162357</v>
       </c>
       <c r="E4" t="n">
-        <v>18346.25809151516</v>
+        <v>9750.620095675902</v>
       </c>
       <c r="F4" t="n">
-        <v>18346.25809151516</v>
+        <v>6471.362281504918</v>
       </c>
       <c r="G4" t="n">
-        <v>5329.732309425659</v>
+        <v>423.816640666314</v>
       </c>
       <c r="H4" t="n">
-        <v>10080.02449937531</v>
+        <v>5820.853235421022</v>
       </c>
       <c r="I4" t="n">
-        <v>16542.2170353492</v>
+        <v>8183.552268172314</v>
       </c>
       <c r="J4" t="n">
-        <v>18417.34644562562</v>
+        <v>11119.93171556926</v>
       </c>
       <c r="K4" t="n">
-        <v>15340.61333345265</v>
+        <v>15534.46950757398</v>
       </c>
       <c r="L4" t="n">
-        <v>15379.42765907581</v>
+        <v>12742.80540823581</v>
       </c>
       <c r="M4" t="n">
-        <v>20709.15996850147</v>
+        <v>17992.72237062064</v>
       </c>
       <c r="N4" t="n">
-        <v>15942.33732324847</v>
+        <v>13289.26126568506</v>
       </c>
       <c r="O4" t="n">
-        <v>2746.289186491936</v>
+        <v>9872.793799343275</v>
       </c>
       <c r="P4" t="n">
-        <v>3267.151369516938</v>
+        <v>13594.75939468835</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38745.80483114667</v>
+        <v>38339.65294307929</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41471.7922589346</v>
+        <v>-33627.60000000003</v>
       </c>
       <c r="C6" t="n">
-        <v>-166480.1499866839</v>
+        <v>-165831.889913532</v>
       </c>
       <c r="D6" t="n">
-        <v>21737.33378268633</v>
+        <v>5781.63822913872</v>
       </c>
       <c r="E6" t="n">
-        <v>45710.57267252445</v>
+        <v>42016.65965986472</v>
       </c>
       <c r="F6" t="n">
-        <v>93131.29493979862</v>
+        <v>94547.19652608091</v>
       </c>
       <c r="G6" t="n">
-        <v>93131.29493979864</v>
+        <v>94547.19652608092</v>
       </c>
       <c r="H6" t="n">
-        <v>93131.29493979862</v>
+        <v>94547.19652608091</v>
       </c>
       <c r="I6" t="n">
-        <v>93131.29493979864</v>
+        <v>94547.19652608089</v>
       </c>
       <c r="J6" t="n">
-        <v>93131.29493979864</v>
+        <v>94547.19652608089</v>
       </c>
       <c r="K6" t="n">
-        <v>93131.29493979862</v>
+        <v>94547.19652608089</v>
       </c>
       <c r="L6" t="n">
-        <v>93131.29493979865</v>
+        <v>94547.19652608089</v>
       </c>
       <c r="M6" t="n">
-        <v>93131.29493979864</v>
+        <v>94547.19652608089</v>
       </c>
       <c r="N6" t="n">
-        <v>93131.29493979864</v>
+        <v>94547.19652608091</v>
       </c>
       <c r="O6" t="n">
-        <v>93131.29493979865</v>
+        <v>94547.19652608091</v>
       </c>
       <c r="P6" t="n">
-        <v>93131.29493979864</v>
+        <v>94547.19652608089</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>216.1492175724446</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>216.1492175724445</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>44.64717494502023</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>65.38503947111997</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.8689415781806812</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>8.899047937542903</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>33.49987019281074</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>73.75033027111266</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>110.5326272755009</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>137.125498098748</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>152.5785378897186</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>155.0474181487245</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>146.4068803306903</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>124.9548851193548</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>93.8359148507591</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>54.58365141039226</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>19.80100621279229</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>3.803791758485934</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.06951532625445447</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.4649247321369563</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>4.490194123533237</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>16.00727696173293</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>43.92519146913236</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>75.07514852230842</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>100.9478020370177</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>117.8013235769823</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>120.9191740832867</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>110.6174208080415</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>88.78023240253862</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>59.34723422857008</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>28.86611626373139</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>8.635772985087758</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>1.873972933481854</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03058715343006293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.3897772775896541</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>3.465474340751655</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>11.72166576605978</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>27.55725352558855</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>45.28503279632526</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>57.94925088819277</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>61.09935997707642</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>59.64655376060593</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>55.0932464723995</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>47.14179000957051</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>32.63853185343913</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>17.52580377234936</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>6.792754919448789</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>1.665412004246704</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02126057877761752</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337322.3770550952</v>
+        <v>214349.5323055787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11996082.62363122</v>
+        <v>11121133.31629766</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22772380.97929929</v>
+        <v>21897431.67196571</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3291063.779129223</v>
+        <v>3758716.007386214</v>
       </c>
     </row>
     <row r="11">
@@ -8300,16 +8300,16 @@
         <v>62.76629045205057</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>37.60657774285653</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>24.33271034503603</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.42253800004659</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>31.97882363640291</v>
       </c>
       <c r="P6" t="n">
         <v>45.19417501179163</v>
@@ -8455,22 +8455,22 @@
         <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
         <v>109.0872921559756</v>
@@ -8537,7 +8537,7 @@
         <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
         <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,7 +8619,7 @@
         <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
         <v>55.71856618250388</v>
@@ -8692,25 +8692,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8853,16 +8853,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
         <v>66.5883684560963</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,19 +9090,19 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
         <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,16 +9801,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
         <v>66.5883684560963</v>
@@ -9877,22 +9877,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
         <v>80.70197082457096</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,19 +10035,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
         <v>66.5883684560963</v>
@@ -10114,22 +10114,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
         <v>80.70197082457096</v>
@@ -10193,7 +10193,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,7 +10275,7 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
         <v>46.72338342663512</v>
@@ -10284,7 +10284,7 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
         <v>66.5883684560963</v>
@@ -10351,22 +10351,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
         <v>80.70197082457096</v>
@@ -10430,7 +10430,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
         <v>80.70197082457096</v>
@@ -10667,7 +10667,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10752,10 +10752,10 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
         <v>55.31770395088348</v>
@@ -10825,22 +10825,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
         <v>80.70197082457096</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
         <v>80.70197082457096</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
         <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
         <v>80.70197082457096</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,13 +11460,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
         <v>55.31770395088348</v>
@@ -22892,16 +22892,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37.60657774285653</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>24.33271034503603</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10.42253800004659</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>31.97882363640291</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23047,22 +23047,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -23129,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,13 +23138,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>65.32921403493339</v>
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23284,25 +23284,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>67.4992912993288</v>
@@ -23360,10 +23360,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>56.59722706556381</v>
@@ -23445,16 +23445,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -23518,28 +23518,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>67.4992912993288</v>
@@ -23597,10 +23597,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>56.59722706556381</v>
@@ -23682,19 +23682,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>36.90864702141808</v>
@@ -23755,31 +23755,31 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>133.2157111723112</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
         <v>179.1392278518137</v>
@@ -23831,13 +23831,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S18" t="n">
         <v>158.6512997408977</v>
@@ -23916,25 +23916,25 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R19" t="n">
         <v>150.8459592031442</v>
@@ -23992,28 +23992,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>67.4992912993288</v>
@@ -24071,10 +24071,10 @@
         <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>56.59722706556381</v>
@@ -24153,22 +24153,22 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>36.90864702141808</v>
@@ -24229,28 +24229,28 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>28.83625887535973</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947139259</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>67.4992912993288</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>56.59722706556381</v>
@@ -24393,16 +24393,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>47.43596908875769</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615368</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24469,22 +24469,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24542,13 +24542,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,10 +24566,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S27" t="n">
         <v>158.6512997408977</v>
@@ -24627,19 +24627,19 @@
         <v>51.77372115642321</v>
       </c>
       <c r="K28" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24706,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>56.59722706556381</v>
@@ -24867,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24876,7 +24876,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -24943,22 +24943,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25098,28 +25098,28 @@
         <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R34" t="n">
         <v>150.8459592031442</v>
@@ -25183,19 +25183,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>56.59722706556381</v>
@@ -25344,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25417,22 +25417,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25572,28 +25572,28 @@
         <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R40" t="n">
         <v>150.8459592031442</v>
@@ -25654,22 +25654,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25727,13 +25727,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S42" t="n">
         <v>158.6512997408977</v>
@@ -25809,28 +25809,28 @@
         <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R43" t="n">
         <v>150.8459592031442</v>
@@ -25891,22 +25891,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -25964,13 +25964,13 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>56.59722706556381</v>
@@ -26052,13 +26052,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615366</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>329044.0158339013</v>
+        <v>336786.0920434475</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>271387.2037673077</v>
+        <v>328093.623007911</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>269703.9543869278</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>258773.0950063578</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>238614.6095368957</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>256604.7315194114</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>264480.3949619157</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>274268.326453239</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>288983.4524265881</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>279677.9054287942</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>297177.6286367438</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>281499.4249536251</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270111.200065819</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282517.7520503027</v>
+        <v>317535.7079258311</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>112882.7758080187</v>
       </c>
       <c r="C2" t="n">
-        <v>119513.3066050055</v>
+        <v>121835.9294678693</v>
       </c>
       <c r="D2" t="n">
-        <v>106415.4807110076</v>
+        <v>123427.4064831884</v>
       </c>
       <c r="E2" t="n">
-        <v>111408.571839108</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="F2" t="n">
-        <v>108129.314024937</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="G2" t="n">
-        <v>102081.7683840984</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="H2" t="n">
-        <v>107478.8049788531</v>
+        <v>125758.0979007788</v>
       </c>
       <c r="I2" t="n">
-        <v>109841.5040116044</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="J2" t="n">
-        <v>112777.8834590013</v>
+        <v>125758.0979007788</v>
       </c>
       <c r="K2" t="n">
-        <v>117192.421251006</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="L2" t="n">
-        <v>114400.7571516679</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="M2" t="n">
-        <v>119650.6741140527</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="N2" t="n">
-        <v>114947.2130091171</v>
+        <v>125758.0979007789</v>
       </c>
       <c r="O2" t="n">
-        <v>111530.7455427753</v>
+        <v>125758.0979007788</v>
       </c>
       <c r="P2" t="n">
-        <v>115252.7111381204</v>
+        <v>125758.0979007789</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>112882.7758080187</v>
       </c>
       <c r="C4" t="n">
-        <v>50179.633755555</v>
+        <v>52502.25661841885</v>
       </c>
       <c r="D4" t="n">
-        <v>23084.41544162357</v>
+        <v>40096.34121380442</v>
       </c>
       <c r="E4" t="n">
-        <v>9750.620095675902</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="F4" t="n">
-        <v>6471.362281504918</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="G4" t="n">
-        <v>423.816640666314</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="H4" t="n">
-        <v>5820.853235421022</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="I4" t="n">
-        <v>8183.552268172314</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="J4" t="n">
-        <v>11119.93171556926</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="K4" t="n">
-        <v>15534.46950757398</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="L4" t="n">
-        <v>12742.80540823581</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="M4" t="n">
-        <v>17992.72237062064</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="N4" t="n">
-        <v>13289.26126568506</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="O4" t="n">
-        <v>9872.793799343275</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="P4" t="n">
-        <v>13594.75939468835</v>
+        <v>24100.1461573468</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.60000000003</v>
+        <v>-48778.27397003479</v>
       </c>
       <c r="C6" t="n">
-        <v>-165831.889913532</v>
+        <v>-180556.2232330977</v>
       </c>
       <c r="D6" t="n">
-        <v>5781.63822913872</v>
+        <v>-8866.910470649891</v>
       </c>
       <c r="E6" t="n">
-        <v>42016.65965986472</v>
+        <v>27479.09626567568</v>
       </c>
       <c r="F6" t="n">
-        <v>94547.19652608091</v>
+        <v>80009.63313189187</v>
       </c>
       <c r="G6" t="n">
-        <v>94547.19652608092</v>
+        <v>80009.63313189187</v>
       </c>
       <c r="H6" t="n">
-        <v>94547.19652608091</v>
+        <v>80009.63313189184</v>
       </c>
       <c r="I6" t="n">
-        <v>94547.19652608089</v>
+        <v>80009.6331318919</v>
       </c>
       <c r="J6" t="n">
-        <v>94547.19652608089</v>
+        <v>80009.63313189184</v>
       </c>
       <c r="K6" t="n">
-        <v>94547.19652608089</v>
+        <v>80009.63313189187</v>
       </c>
       <c r="L6" t="n">
-        <v>94547.19652608089</v>
+        <v>80009.63313189187</v>
       </c>
       <c r="M6" t="n">
-        <v>94547.19652608089</v>
+        <v>80009.63313189187</v>
       </c>
       <c r="N6" t="n">
-        <v>94547.19652608091</v>
+        <v>80009.63313189187</v>
       </c>
       <c r="O6" t="n">
-        <v>94547.19652608091</v>
+        <v>80009.63313189184</v>
       </c>
       <c r="P6" t="n">
-        <v>94547.19652608089</v>
+        <v>80009.63313189187</v>
       </c>
     </row>
   </sheetData>
@@ -32718,7 +32718,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -32867,19 +32867,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K25" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M25" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O25" t="n">
         <v>83.13883450095931</v>
@@ -34140,7 +34140,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
@@ -34289,19 +34289,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K43" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M43" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O43" t="n">
         <v>83.13883450095931</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214349.5323055787</v>
+        <v>324605.635895417</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11121133.31629766</v>
+        <v>11102227.21276787</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21897431.67196571</v>
+        <v>21901816.18530999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3758716.007386214</v>
+        <v>3759136.2036236</v>
       </c>
     </row>
     <row r="11">
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.2955742555736</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K5" t="n">
-        <v>109.5572237694796</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>98.64091687123928</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>77.7676953375541</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
-        <v>74.3656454478664</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>83.69133109099639</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
-        <v>106.2781106359148</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.4697750236904</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>82.91243519753434</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K6" t="n">
-        <v>62.76629045205057</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>37.60657774285653</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
-        <v>24.33271034503603</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N6" t="n">
-        <v>10.42253800004659</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>31.97882363640291</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
-        <v>45.19417501179163</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.63453985745144</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>83.72822537421013</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L7" t="n">
-        <v>76.93542539304551</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>77.82642397052864</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
-        <v>68.03899070462725</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O7" t="n">
-        <v>83.36329197944329</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P7" t="n">
-        <v>90.5862140395771</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P13" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L14" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L16" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M16" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N16" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O16" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P16" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N19" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P19" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M22" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P23" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P25" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P28" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P31" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L37" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O37" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K39" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L40" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M40" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L41" t="n">
-        <v>28.83625887535973</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947139259</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L43" t="n">
-        <v>47.43596908875769</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615368</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947136416</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615366</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.4337959369544</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H5" t="n">
-        <v>330.5757541782243</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I5" t="n">
-        <v>176.9760193775952</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.28546653075742</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S5" t="n">
-        <v>189.2190633734531</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T5" t="n">
-        <v>219.2920578056454</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U5" t="n">
-        <v>251.276137581582</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8785924310737</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H6" t="n">
-        <v>107.7452501129632</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>73.38935588968215</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>71.29171788891175</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S6" t="n">
-        <v>163.0473981187501</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T6" t="n">
-        <v>198.2907557613397</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9107949275447</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6012020808691</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H7" t="n">
-        <v>158.7616981666879</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I7" t="n">
-        <v>143.7288091611985</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>65.80192659108423</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.52351139825525</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R7" t="n">
-        <v>159.7675876048201</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S7" t="n">
-        <v>217.2238431175235</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T7" t="n">
-        <v>226.2801774240348</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2977687777133</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H11" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I11" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S11" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I12" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T12" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I13" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J13" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R13" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S13" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U13" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H14" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I15" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T15" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I16" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J16" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U16" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I18" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T18" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I19" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J19" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I21" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T21" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I22" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J22" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U22" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I24" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T24" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I25" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S25" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U25" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I27" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T27" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I28" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J28" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S28" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U28" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I30" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T30" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I31" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J31" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S31" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U31" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I33" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T33" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I34" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J34" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S34" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U34" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I36" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T36" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I37" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J37" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S37" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U37" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I39" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T39" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I40" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J40" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S40" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U40" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I42" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T42" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I43" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J43" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S43" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U43" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>336786.0920434475</v>
+        <v>333023.6194260847</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>317535.7079258311</v>
+        <v>318001.0698274921</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>112882.7758080187</v>
       </c>
       <c r="C2" t="n">
-        <v>121835.9294678693</v>
+        <v>122500.0369444123</v>
       </c>
       <c r="D2" t="n">
         <v>123427.4064831884</v>
       </c>
       <c r="E2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="F2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="G2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="H2" t="n">
-        <v>125758.0979007788</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="I2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="J2" t="n">
-        <v>125758.0979007788</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="K2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="L2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="M2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="N2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="O2" t="n">
-        <v>125758.0979007788</v>
+        <v>125626.0266275425</v>
       </c>
       <c r="P2" t="n">
-        <v>125758.0979007789</v>
+        <v>125626.0266275425</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>196825.9098199031</v>
+        <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>38236.46568336456</v>
+        <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>52530.53686621619</v>
+        <v>49553.83440129749</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>112882.7758080187</v>
       </c>
       <c r="C4" t="n">
-        <v>52502.25661841885</v>
+        <v>47190.19988912244</v>
       </c>
       <c r="D4" t="n">
         <v>40096.34121380442</v>
       </c>
       <c r="E4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
       <c r="F4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
       <c r="G4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322575</v>
       </c>
       <c r="H4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
       <c r="I4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322575</v>
       </c>
       <c r="J4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
       <c r="K4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322575</v>
       </c>
       <c r="L4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
       <c r="M4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322575</v>
       </c>
       <c r="N4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
       <c r="O4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322575</v>
       </c>
       <c r="P4" t="n">
-        <v>24100.1461573468</v>
+        <v>24873.67436322576</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38339.65294307929</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="F5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="G5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="H5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="I5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="J5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="K5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="L5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="M5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="N5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="O5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>7029.98365720608</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003479</v>
+        <v>-35142.6673970035</v>
       </c>
       <c r="C6" t="n">
-        <v>-180556.2232330977</v>
+        <v>-178696.410968865</v>
       </c>
       <c r="D6" t="n">
-        <v>-8866.910470649891</v>
+        <v>20272.47891270747</v>
       </c>
       <c r="E6" t="n">
-        <v>27479.09626567568</v>
+        <v>42714.14895556936</v>
       </c>
       <c r="F6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="G6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="H6" t="n">
-        <v>80009.63313189184</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="I6" t="n">
-        <v>80009.6331318919</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="J6" t="n">
-        <v>80009.63313189184</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="K6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="L6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="M6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="N6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="O6" t="n">
-        <v>80009.63313189184</v>
+        <v>92267.98335686687</v>
       </c>
       <c r="P6" t="n">
-        <v>80009.63313189187</v>
+        <v>92267.98335686687</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>216.1492175724446</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="F3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="G3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="H3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="I3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="J3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="K3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="L3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="M3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="N3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="O3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>322.4763145507376</v>
       </c>
     </row>
     <row r="4">
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>216.1492175724445</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>44.64717494502023</v>
+        <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>65.38503947111997</v>
+        <v>61.67992203327283</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8689415781806812</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H5" t="n">
-        <v>8.899047937542903</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I5" t="n">
-        <v>33.49987019281074</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J5" t="n">
-        <v>73.75033027111266</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K5" t="n">
-        <v>110.5326272755009</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>137.125498098748</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
-        <v>152.5785378897186</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N5" t="n">
-        <v>155.0474181487245</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>146.4068803306903</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
-        <v>124.9548851193548</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.8359148507591</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R5" t="n">
-        <v>54.58365141039226</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S5" t="n">
-        <v>19.80100621279229</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>3.803791758485934</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06951532625445447</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4649247321369563</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H6" t="n">
-        <v>4.490194123533237</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I6" t="n">
-        <v>16.00727696173293</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J6" t="n">
-        <v>43.92519146913236</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K6" t="n">
-        <v>75.07514852230842</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L6" t="n">
-        <v>100.9478020370177</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M6" t="n">
-        <v>117.8013235769823</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N6" t="n">
-        <v>120.9191740832867</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>110.6174208080415</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P6" t="n">
-        <v>88.78023240253862</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.34723422857008</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
-        <v>28.86611626373139</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S6" t="n">
-        <v>8.635772985087758</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T6" t="n">
-        <v>1.873972933481854</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03058715343006293</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3897772775896541</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
-        <v>3.465474340751655</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I7" t="n">
-        <v>11.72166576605978</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J7" t="n">
-        <v>27.55725352558855</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K7" t="n">
-        <v>45.28503279632526</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L7" t="n">
-        <v>57.94925088819277</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>61.09935997707642</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
-        <v>59.64655376060593</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O7" t="n">
-        <v>55.0932464723995</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P7" t="n">
-        <v>47.14179000957051</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.63853185343913</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
-        <v>17.52580377234936</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>6.792754919448789</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
-        <v>1.665412004246704</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02126057877761752</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H11" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K11" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R11" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H12" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I12" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J12" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K12" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R12" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T12" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K13" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L13" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O13" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P13" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R13" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T13" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H14" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J14" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K14" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L14" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P14" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R14" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H15" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I15" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J15" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K15" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R15" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S15" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T15" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I16" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J16" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K16" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L16" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O16" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P16" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R16" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S16" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T16" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H17" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J17" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R17" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H18" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J18" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K18" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R18" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T18" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K19" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L19" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O19" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P19" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R19" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R20" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H21" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J21" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K21" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R21" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T21" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K22" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L22" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O22" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P22" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R22" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H23" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I23" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J23" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K23" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L23" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P23" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R23" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S23" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T23" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H24" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I24" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J24" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K24" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R24" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T24" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H25" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I25" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K25" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L25" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M25" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O25" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P25" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R25" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T25" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H26" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I26" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J26" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K26" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L26" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M26" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P26" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R26" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S26" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T26" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H27" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I27" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J27" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K27" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R27" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T27" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H28" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I28" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J28" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K28" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L28" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M28" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N28" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O28" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P28" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R28" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T28" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H29" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I29" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J29" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K29" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L29" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M29" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P29" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R29" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S29" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T29" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H30" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I30" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J30" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K30" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R30" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T30" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H31" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I31" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J31" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K31" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L31" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M31" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N31" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O31" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P31" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R31" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T31" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H32" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I32" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J32" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K32" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L32" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P32" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R32" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S32" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T32" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H33" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I33" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J33" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K33" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R33" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T33" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H34" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I34" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K34" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L34" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M34" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O34" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P34" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R34" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T34" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H35" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I35" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J35" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K35" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L35" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M35" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P35" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R35" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S35" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T35" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H36" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I36" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J36" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K36" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R36" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T36" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H37" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I37" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J37" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K37" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L37" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M37" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N37" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O37" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P37" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R37" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T37" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H38" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I38" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J38" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K38" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L38" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M38" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P38" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R38" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S38" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T38" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H39" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I39" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J39" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K39" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R39" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T39" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H40" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I40" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J40" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K40" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L40" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M40" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N40" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O40" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P40" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R40" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T40" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H41" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I41" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J41" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K41" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L41" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278013</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P41" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R41" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S41" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T41" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H42" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I42" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J42" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K42" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R42" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T42" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H43" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I43" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024956</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K43" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L43" t="n">
-        <v>87.4487071924806</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M43" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907951</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O43" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P43" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R43" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T43" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278014</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024957</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L46" t="n">
-        <v>87.44870719248058</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907953</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
